--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,114 +135,6 @@
     <t>element:Dosage</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -250,6 +142,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>実投与日数</t>
@@ -262,6 +158,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -272,10 +172,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -307,10 +207,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -318,13 +214,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -337,7 +233,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -357,13 +253,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].value</t>
@@ -376,10 +272,10 @@
 </t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -395,22 +291,22 @@
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -431,7 +327,7 @@
     <t>「日」で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -452,7 +348,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -477,10 +373,10 @@
     <t>単位コードUCUMにおける実投与日数の単位。dで固定される</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -611,10 +507,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -804,7 +700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -814,1371 +710,1296 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="226.484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="68.94921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
+      <c r="AK1" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>3</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>70</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>70</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Dosage</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -700,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -711,11 +822,13 @@
   <cols>
     <col min="1" max="1" width="29.40625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -726,1280 +839,1392 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>40</v>
+      <c r="I1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O9" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="R10" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>119</v>
+      <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
